--- a/Results/Calculation/dp-partial-ner-fasttext-money.xlsx
+++ b/Results/Calculation/dp-partial-ner-fasttext-money.xlsx
@@ -432,28 +432,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D2">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F2">
-        <v>0.66</v>
+        <v>0.6453488372093024</v>
       </c>
       <c r="G2">
-        <v>0.72</v>
+        <v>0.7350993377483444</v>
       </c>
       <c r="H2">
-        <v>0.6899999999999999</v>
+        <v>0.6873065015479877</v>
       </c>
       <c r="I2">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -461,25 +461,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C3">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D3">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3">
-        <v>0.76</v>
+        <v>0.7426470588235294</v>
       </c>
       <c r="G3">
-        <v>0.93</v>
+        <v>0.9308755760368663</v>
       </c>
       <c r="H3">
-        <v>0.84</v>
+        <v>0.8261758691206544</v>
       </c>
       <c r="I3">
         <v>0.82</v>
@@ -490,28 +490,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="C4">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D4">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E4">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F4">
-        <v>0.66</v>
+        <v>0.6770833333333334</v>
       </c>
       <c r="G4">
-        <v>0.76</v>
+        <v>0.8441558441558441</v>
       </c>
       <c r="H4">
-        <v>0.71</v>
+        <v>0.7514450867052023</v>
       </c>
       <c r="I4">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -519,28 +519,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C5">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E5">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5">
-        <v>0.62</v>
+        <v>0.5886524822695035</v>
       </c>
       <c r="G5">
-        <v>0.63</v>
+        <v>0.6384615384615384</v>
       </c>
       <c r="H5">
-        <v>0.62</v>
+        <v>0.6125461254612545</v>
       </c>
       <c r="I5">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
     </row>
   </sheetData>
